--- a/StructureDefinition-rs-observation-vehicle-condition.xlsx
+++ b/StructureDefinition-rs-observation-vehicle-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:01:16+00:00</t>
+    <t>2025-10-15T17:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-vehicle-condition.xlsx
+++ b/StructureDefinition-rs-observation-vehicle-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:40:06+00:00</t>
+    <t>2025-10-15T18:08:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-vehicle-condition.xlsx
+++ b/StructureDefinition-rs-observation-vehicle-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:08:27+00:00</t>
+    <t>2025-10-15T18:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-vehicle-condition.xlsx
+++ b/StructureDefinition-rs-observation-vehicle-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:32:50+00:00</t>
+    <t>2025-10-15T18:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-vehicle-condition.xlsx
+++ b/StructureDefinition-rs-observation-vehicle-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:40:48+00:00</t>
+    <t>2025-10-16T02:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-vehicle-condition.xlsx
+++ b/StructureDefinition-rs-observation-vehicle-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T02:41:49+00:00</t>
+    <t>2025-10-16T07:04:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-vehicle-condition.xlsx
+++ b/StructureDefinition-rs-observation-vehicle-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:04:25+00:00</t>
+    <t>2025-10-16T07:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-vehicle-condition.xlsx
+++ b/StructureDefinition-rs-observation-vehicle-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:32:50+00:00</t>
+    <t>2025-10-16T10:13:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-vehicle-condition.xlsx
+++ b/StructureDefinition-rs-observation-vehicle-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T10:13:43+00:00</t>
+    <t>2025-10-16T12:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-observation-vehicle-condition.xlsx
+++ b/StructureDefinition-rs-observation-vehicle-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T12:46:03+00:00</t>
+    <t>2025-10-18T06:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
